--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11824.07664808952</v>
+        <v>2352991.252969815</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11824.07664808952</v>
+        <v>2352991.252969815</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38030.81906387323</v>
+        <v>2286571.816831906</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38030.81906387323</v>
+        <v>2286571.816831906</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265927191.44705</v>
+        <v>50564913.37325545</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11969.71335542048</v>
+        <v>1229335.513574182</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22829.27286606614</v>
+        <v>2268321.571848572</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33688.83237671178</v>
+        <v>3307307.630122963</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45700.44353049386</v>
+        <v>4283869.980469121</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57712.05468427591</v>
+        <v>5260432.330815277</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69723.66583805796</v>
+        <v>6236994.681161431</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81742.40426456727</v>
+        <v>7213935.252113644</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>93759.24208501606</v>
+        <v>8190497.602459796</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>105563.1105968063</v>
+        <v>9154231.170183249</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117417.0289877522</v>
+        <v>10130568.32398688</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>129270.4722271829</v>
+        <v>11106810.922639</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>141123.9154666137</v>
+        <v>12083053.52129113</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>152977.3587060444</v>
+        <v>13059296.11994326</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>164842.4029754104</v>
+        <v>14034943.63675764</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>176711.755195428</v>
+        <v>15008752.23592173</v>
       </c>
     </row>
   </sheetData>
